--- a/data/pca/factorExposure/factorExposure_2012-11-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-11-12.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.001703708669530324</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002163920068970002</v>
+      </c>
+      <c r="C2">
+        <v>-0.02985808983045349</v>
+      </c>
+      <c r="D2">
+        <v>0.004384214346052826</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001470547780892589</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006850909462881321</v>
+      </c>
+      <c r="C4">
+        <v>-0.08297650661488</v>
+      </c>
+      <c r="D4">
+        <v>0.07516256739547721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.000321483644228325</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01454867794214538</v>
+      </c>
+      <c r="C6">
+        <v>-0.1154150226159252</v>
+      </c>
+      <c r="D6">
+        <v>0.0299384947662552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.002002760631693729</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.00492467034142784</v>
+      </c>
+      <c r="C7">
+        <v>-0.05838565966505597</v>
+      </c>
+      <c r="D7">
+        <v>0.03235779844207431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.000346528813773398</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005954636618253037</v>
+      </c>
+      <c r="C8">
+        <v>-0.03680025404361469</v>
+      </c>
+      <c r="D8">
+        <v>0.04058135071904388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.004112776406333806</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.0050228821989617</v>
+      </c>
+      <c r="C9">
+        <v>-0.07082047302052806</v>
+      </c>
+      <c r="D9">
+        <v>0.07327067801043655</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.001563261313771163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.00571415951736502</v>
+      </c>
+      <c r="C10">
+        <v>-0.05570195480623365</v>
+      </c>
+      <c r="D10">
+        <v>-0.1975130782767832</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.004528585855550236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005518994934434185</v>
+      </c>
+      <c r="C11">
+        <v>-0.07942003742638991</v>
+      </c>
+      <c r="D11">
+        <v>0.06312182841751252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.001492618451487812</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003894716087160327</v>
+      </c>
+      <c r="C12">
+        <v>-0.06358086979864308</v>
+      </c>
+      <c r="D12">
+        <v>0.04904931270370062</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.002036507226609368</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.009098494318190087</v>
+      </c>
+      <c r="C13">
+        <v>-0.06999136890857462</v>
+      </c>
+      <c r="D13">
+        <v>0.05595498551358134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.002305970728289597</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001121513535950103</v>
+      </c>
+      <c r="C14">
+        <v>-0.04389770895625258</v>
+      </c>
+      <c r="D14">
+        <v>0.005759515553459328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0007933555736557127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006045778533043263</v>
+      </c>
+      <c r="C15">
+        <v>-0.04180583598429063</v>
+      </c>
+      <c r="D15">
+        <v>0.03103640243130014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.002253505021760739</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004897450865166551</v>
+      </c>
+      <c r="C16">
+        <v>-0.06417817473963247</v>
+      </c>
+      <c r="D16">
+        <v>0.05468948334054033</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0009082923539319252</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008747988898630085</v>
+      </c>
+      <c r="C20">
+        <v>-0.06560038189535064</v>
+      </c>
+      <c r="D20">
+        <v>0.04317835539002002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.006072802710649715</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009828427119090042</v>
+      </c>
+      <c r="C21">
+        <v>-0.02150906333241852</v>
+      </c>
+      <c r="D21">
+        <v>0.03869197001985026</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01756365388052971</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006278075653713579</v>
+      </c>
+      <c r="C22">
+        <v>-0.09293113789322521</v>
+      </c>
+      <c r="D22">
+        <v>0.1206306157799402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01786914520934799</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006071700981292253</v>
+      </c>
+      <c r="C23">
+        <v>-0.09369686047525513</v>
+      </c>
+      <c r="D23">
+        <v>0.1206189375480814</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.003613410315823989</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005374507930225712</v>
+      </c>
+      <c r="C24">
+        <v>-0.07564593319490452</v>
+      </c>
+      <c r="D24">
+        <v>0.06696107756280122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.005811905568195847</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003161522233065766</v>
+      </c>
+      <c r="C25">
+        <v>-0.07798945680702835</v>
+      </c>
+      <c r="D25">
+        <v>0.0647460149396482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.004268934186740948</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003573679163226075</v>
+      </c>
+      <c r="C26">
+        <v>-0.0388345875216582</v>
+      </c>
+      <c r="D26">
+        <v>0.02379200635590368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.007348711938171104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0009291689233392345</v>
+      </c>
+      <c r="C28">
+        <v>-0.1050092102303699</v>
+      </c>
+      <c r="D28">
+        <v>-0.3227128641560535</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001452525372103982</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.002921593777177309</v>
+      </c>
+      <c r="C29">
+        <v>-0.05011887173954428</v>
+      </c>
+      <c r="D29">
+        <v>0.006807010591007403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.005077380311839313</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.01012454382517272</v>
+      </c>
+      <c r="C30">
+        <v>-0.1427675626943855</v>
+      </c>
+      <c r="D30">
+        <v>0.1049558587767362</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-6.740961633419075e-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006418963500079882</v>
+      </c>
+      <c r="C31">
+        <v>-0.04434552027458442</v>
+      </c>
+      <c r="D31">
+        <v>0.02994438342167995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0005768027272167166</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003718949907139113</v>
+      </c>
+      <c r="C32">
+        <v>-0.03967077901253378</v>
+      </c>
+      <c r="D32">
+        <v>0.02432835750969767</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.003687909780546842</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008549779371204992</v>
+      </c>
+      <c r="C33">
+        <v>-0.08668857642092664</v>
+      </c>
+      <c r="D33">
+        <v>0.0658589684839424</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.005203754596130455</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003971875232491855</v>
+      </c>
+      <c r="C34">
+        <v>-0.05761669969303166</v>
+      </c>
+      <c r="D34">
+        <v>0.05570663033093706</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0007024654196602341</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.00512688204164193</v>
+      </c>
+      <c r="C35">
+        <v>-0.04062934054897056</v>
+      </c>
+      <c r="D35">
+        <v>0.01792390421657719</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.004509856454913882</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001058163499406069</v>
+      </c>
+      <c r="C36">
+        <v>-0.02496475242301357</v>
+      </c>
+      <c r="D36">
+        <v>0.02354668253336589</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.001082087923502755</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.008985356868698471</v>
+      </c>
+      <c r="C38">
+        <v>-0.0349597784866578</v>
+      </c>
+      <c r="D38">
+        <v>0.01520833788948068</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.0139554740911726</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.00101550521641629</v>
+      </c>
+      <c r="C39">
+        <v>-0.1147418675485646</v>
+      </c>
+      <c r="D39">
+        <v>0.07654573955784687</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009365396224335111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.003566586591135081</v>
+      </c>
+      <c r="C40">
+        <v>-0.09045871034326729</v>
+      </c>
+      <c r="D40">
+        <v>0.01203651983425888</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0009070471941687675</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007139106879577803</v>
+      </c>
+      <c r="C41">
+        <v>-0.03753218118409498</v>
+      </c>
+      <c r="D41">
+        <v>0.03862819558652827</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003638607959384343</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003866281831814858</v>
+      </c>
+      <c r="C43">
+        <v>-0.05308627000264009</v>
+      </c>
+      <c r="D43">
+        <v>0.02627226553035901</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.0162709001239567</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.002981657368578734</v>
+      </c>
+      <c r="C44">
+        <v>-0.107665367594207</v>
+      </c>
+      <c r="D44">
+        <v>0.06698335565085553</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.0004188664573097304</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002180619858485113</v>
+      </c>
+      <c r="C46">
+        <v>-0.03316896518322289</v>
+      </c>
+      <c r="D46">
+        <v>0.03311846003498845</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.00127379393929699</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002406621660870115</v>
+      </c>
+      <c r="C47">
+        <v>-0.03663353497724887</v>
+      </c>
+      <c r="D47">
+        <v>0.02061997528928877</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.00392939467219324</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006722600073075367</v>
+      </c>
+      <c r="C48">
+        <v>-0.03026827483696798</v>
+      </c>
+      <c r="D48">
+        <v>0.03527588088302366</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.0132240160586127</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01637846594151877</v>
+      </c>
+      <c r="C49">
+        <v>-0.1863336107214228</v>
+      </c>
+      <c r="D49">
+        <v>0.01452100171103341</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.002088532343756658</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.00378519703299056</v>
+      </c>
+      <c r="C50">
+        <v>-0.04321332284891165</v>
+      </c>
+      <c r="D50">
+        <v>0.0372927850234459</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0003427576819059087</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004803894036811748</v>
+      </c>
+      <c r="C51">
+        <v>-0.02529246728378506</v>
+      </c>
+      <c r="D51">
+        <v>0.01957989340014983</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0004539670491607831</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02111371519647433</v>
+      </c>
+      <c r="C53">
+        <v>-0.1695781386160251</v>
+      </c>
+      <c r="D53">
+        <v>0.02692451127566128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001797669489340195</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008868186307878407</v>
+      </c>
+      <c r="C54">
+        <v>-0.05434139134045825</v>
+      </c>
+      <c r="D54">
+        <v>0.04523166164321787</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.005557262927379035</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.00953768446934909</v>
+      </c>
+      <c r="C55">
+        <v>-0.1093140869109294</v>
+      </c>
+      <c r="D55">
+        <v>0.03901637272570594</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.000377452899886411</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02038314305810375</v>
+      </c>
+      <c r="C56">
+        <v>-0.1763739623888688</v>
+      </c>
+      <c r="D56">
+        <v>0.01601390899373565</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.009782843424957968</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01949935175291746</v>
+      </c>
+      <c r="C58">
+        <v>-0.1099402276424237</v>
+      </c>
+      <c r="D58">
+        <v>0.0626455825748551</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.009327849438149956</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.01024146345451735</v>
+      </c>
+      <c r="C59">
+        <v>-0.1633168027546807</v>
+      </c>
+      <c r="D59">
+        <v>-0.3332087990853537</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.005464036553628724</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02531153439517256</v>
+      </c>
+      <c r="C60">
+        <v>-0.2251197587911117</v>
+      </c>
+      <c r="D60">
+        <v>0.02378375902816106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01529835260135017</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001742268890618012</v>
+      </c>
+      <c r="C61">
+        <v>-0.09480289408564244</v>
+      </c>
+      <c r="D61">
+        <v>0.05653372557515858</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1595175631235037</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1480931313448696</v>
+      </c>
+      <c r="C62">
+        <v>-0.09549862899024342</v>
+      </c>
+      <c r="D62">
+        <v>0.03158270968798572</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0006506550757286478</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006705440781065494</v>
+      </c>
+      <c r="C63">
+        <v>-0.05441746651698331</v>
+      </c>
+      <c r="D63">
+        <v>0.02733616675672594</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.0008218090884362132</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01534282978551785</v>
+      </c>
+      <c r="C64">
+        <v>-0.1041161392933853</v>
+      </c>
+      <c r="D64">
+        <v>0.06348486179513843</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.001803227021910317</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01797288417448612</v>
+      </c>
+      <c r="C65">
+        <v>-0.1237852267331897</v>
+      </c>
+      <c r="D65">
+        <v>0.02076766325267018</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.007761865133512929</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01342287943859595</v>
+      </c>
+      <c r="C66">
+        <v>-0.1597153531829629</v>
+      </c>
+      <c r="D66">
+        <v>0.1134623850637573</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.002818552848352651</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01551122204850153</v>
+      </c>
+      <c r="C67">
+        <v>-0.0661602241232989</v>
+      </c>
+      <c r="D67">
+        <v>0.02705541771681667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.007361575066968253</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001016884366647236</v>
+      </c>
+      <c r="C68">
+        <v>-0.08540536731361446</v>
+      </c>
+      <c r="D68">
+        <v>-0.2624789563290397</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002264979704627555</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.00609926001214844</v>
+      </c>
+      <c r="C69">
+        <v>-0.05090980287258448</v>
+      </c>
+      <c r="D69">
+        <v>0.03669430258500053</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0004216478754724222</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001778409694957389</v>
+      </c>
+      <c r="C70">
+        <v>-0.00300076847952854</v>
+      </c>
+      <c r="D70">
+        <v>0.002282340762917336</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.001580847534864966</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005953249952524609</v>
+      </c>
+      <c r="C71">
+        <v>-0.09217569534997511</v>
+      </c>
+      <c r="D71">
+        <v>-0.303639435024989</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.005398161118090855</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01645797778186946</v>
+      </c>
+      <c r="C72">
+        <v>-0.1530733892182236</v>
+      </c>
+      <c r="D72">
+        <v>0.01433249209079601</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.0154901184829909</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03149147523713681</v>
+      </c>
+      <c r="C73">
+        <v>-0.2826620600309889</v>
+      </c>
+      <c r="D73">
+        <v>0.05750591340198216</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.00690164107561307</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002164600229227252</v>
+      </c>
+      <c r="C74">
+        <v>-0.1032175733872734</v>
+      </c>
+      <c r="D74">
+        <v>0.0346186066921382</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.003884393135761983</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01152481329419126</v>
+      </c>
+      <c r="C75">
+        <v>-0.1228934890078284</v>
+      </c>
+      <c r="D75">
+        <v>0.02013676796994484</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.005970622149545098</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.0227266739410898</v>
+      </c>
+      <c r="C76">
+        <v>-0.1493525252350476</v>
+      </c>
+      <c r="D76">
+        <v>0.05534683105015145</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.004756164751738535</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02280300042166351</v>
+      </c>
+      <c r="C77">
+        <v>-0.1162234195246506</v>
+      </c>
+      <c r="D77">
+        <v>0.06747810839393453</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0003678451555651101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.0151526368514006</v>
+      </c>
+      <c r="C78">
+        <v>-0.09591768969942953</v>
+      </c>
+      <c r="D78">
+        <v>0.07394006326006133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02180129642505592</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03827392877178504</v>
+      </c>
+      <c r="C79">
+        <v>-0.1568186968336816</v>
+      </c>
+      <c r="D79">
+        <v>0.03045435868932414</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.005611737326434457</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01000990199578634</v>
+      </c>
+      <c r="C80">
+        <v>-0.03951210446677351</v>
+      </c>
+      <c r="D80">
+        <v>0.03046655574720212</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0002522553790606174</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01574112857111046</v>
+      </c>
+      <c r="C81">
+        <v>-0.1299214485089675</v>
+      </c>
+      <c r="D81">
+        <v>0.03784539496414641</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.00271804233541903</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.02019097277063688</v>
+      </c>
+      <c r="C82">
+        <v>-0.13935734445587</v>
+      </c>
+      <c r="D82">
+        <v>0.0415904740312437</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.005103400424576235</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01067429281771671</v>
+      </c>
+      <c r="C83">
+        <v>-0.05861512591603524</v>
+      </c>
+      <c r="D83">
+        <v>0.0467235769491307</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01313547657190151</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01173912555498526</v>
+      </c>
+      <c r="C84">
+        <v>-0.03717415240365768</v>
+      </c>
+      <c r="D84">
+        <v>-0.001052535251844967</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01233843531268446</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02926453923091825</v>
+      </c>
+      <c r="C85">
+        <v>-0.1254509007950567</v>
+      </c>
+      <c r="D85">
+        <v>0.04084773582759423</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.003007774457949623</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.004614406041834113</v>
+      </c>
+      <c r="C86">
+        <v>-0.04929857729136062</v>
+      </c>
+      <c r="D86">
+        <v>0.02917767319400256</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.004005787291826615</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01102613240416043</v>
+      </c>
+      <c r="C87">
+        <v>-0.1294177986390552</v>
+      </c>
+      <c r="D87">
+        <v>0.06945904219522452</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01164472655665171</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002771324092453168</v>
+      </c>
+      <c r="C88">
+        <v>-0.06306363050637405</v>
+      </c>
+      <c r="D88">
+        <v>0.02229730034567522</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01533685223135582</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001315626378865783</v>
+      </c>
+      <c r="C89">
+        <v>-0.1393000616076148</v>
+      </c>
+      <c r="D89">
+        <v>-0.3201303392622786</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.003838808621280949</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006872563192099656</v>
+      </c>
+      <c r="C90">
+        <v>-0.1193689457801619</v>
+      </c>
+      <c r="D90">
+        <v>-0.316996708656224</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001310298538621158</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01060159813279952</v>
+      </c>
+      <c r="C91">
+        <v>-0.1006779892520321</v>
+      </c>
+      <c r="D91">
+        <v>0.02170452223366796</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.01062921773018654</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001280401321727358</v>
+      </c>
+      <c r="C92">
+        <v>-0.1355393727790703</v>
+      </c>
+      <c r="D92">
+        <v>-0.3257572381086755</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.002458315724800896</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005280424414539476</v>
+      </c>
+      <c r="C93">
+        <v>-0.104421651730544</v>
+      </c>
+      <c r="D93">
+        <v>-0.3023601774106573</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.0008195460169124086</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02257018011641036</v>
+      </c>
+      <c r="C94">
+        <v>-0.1463076421322538</v>
+      </c>
+      <c r="D94">
+        <v>0.04921234658628509</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.003207951961202788</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01719512334846907</v>
+      </c>
+      <c r="C95">
+        <v>-0.1228072933685166</v>
+      </c>
+      <c r="D95">
+        <v>0.06242108551616594</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.002092560368341141</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03612259385438006</v>
+      </c>
+      <c r="C97">
+        <v>-0.217706953399684</v>
+      </c>
+      <c r="D97">
+        <v>-0.01225841392844107</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.003991708163154604</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03818660476680642</v>
+      </c>
+      <c r="C98">
+        <v>-0.2531037096129495</v>
+      </c>
+      <c r="D98">
+        <v>0.04038035448269029</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9850983821106498</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9814318387036292</v>
+      </c>
+      <c r="C99">
+        <v>0.1201013685113072</v>
+      </c>
+      <c r="D99">
+        <v>-0.0242323507622472</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001372214065043237</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.002963137976293489</v>
+      </c>
+      <c r="C101">
+        <v>-0.05025508600501033</v>
+      </c>
+      <c r="D101">
+        <v>0.00719311675110625</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
